--- a/SIGOFCv3/Archivos/Plantilla/CoberturaBosquesNaturales.xlsx
+++ b/SIGOFCv3/Archivos/Plantilla/CoberturaBosquesNaturales.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA29D51-CBC0-4651-975B-08B835DD97FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBA94FD-50F8-44D9-9DE3-62772314EC39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="420" windowWidth="14880" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>AREA_COBERTURA_BOSQUES</t>
-  </si>
-  <si>
-    <t>AREA (has)</t>
-  </si>
-  <si>
     <t>COORDENADA_ESTE</t>
   </si>
   <si>
@@ -53,6 +47,12 @@
   </si>
   <si>
     <t>Otros</t>
+  </si>
+  <si>
+    <t>ÁREA_COBERTURA_BOSQUES</t>
+  </si>
+  <si>
+    <t>ÁREA (has)</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,22 +475,22 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -527,27 +527,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
